--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dlk1</t>
+  </si>
+  <si>
+    <t>Notch4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dlk1</t>
-  </si>
-  <si>
-    <t>Notch4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H2">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I2">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J2">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N2">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O2">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P2">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q2">
-        <v>16.53807435533611</v>
+        <v>0.8333246498053333</v>
       </c>
       <c r="R2">
-        <v>148.842669198025</v>
+        <v>7.499921848247999</v>
       </c>
       <c r="S2">
-        <v>0.03438959168456828</v>
+        <v>0.002937874998098552</v>
       </c>
       <c r="T2">
-        <v>0.036996588762768</v>
+        <v>0.003033748680528499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H3">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I3">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J3">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P3">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q3">
-        <v>1.547431925721</v>
+        <v>0.123263919867</v>
       </c>
       <c r="R3">
-        <v>13.926887331489</v>
+        <v>1.109375278803</v>
       </c>
       <c r="S3">
-        <v>0.003217759875897526</v>
+        <v>0.0004345653142859485</v>
       </c>
       <c r="T3">
-        <v>0.003461690966204056</v>
+        <v>0.0004487467811502251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H4">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I4">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J4">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N4">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O4">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P4">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q4">
-        <v>0.2299863982545556</v>
+        <v>0.03812125881922222</v>
       </c>
       <c r="R4">
-        <v>2.069877584291</v>
+        <v>0.343091329373</v>
       </c>
       <c r="S4">
-        <v>0.0004782381647973871</v>
+        <v>0.0001343959922548785</v>
       </c>
       <c r="T4">
-        <v>0.0005144923172091427</v>
+        <v>0.0001387818285105535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H5">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I5">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J5">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N5">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O5">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P5">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q5">
-        <v>0.8014953316296668</v>
+        <v>0.0096570372145</v>
       </c>
       <c r="R5">
-        <v>4.808971989778001</v>
+        <v>0.057942223287</v>
       </c>
       <c r="S5">
-        <v>0.001666644894660211</v>
+        <v>3.404575659056096E-05</v>
       </c>
       <c r="T5">
-        <v>0.001195326313590778</v>
+        <v>2.343786335385442E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H6">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I6">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J6">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N6">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O6">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P6">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q6">
-        <v>0.1832449636636667</v>
+        <v>0.04738642684555556</v>
       </c>
       <c r="R6">
-        <v>1.649204672973</v>
+        <v>0.42647784161</v>
       </c>
       <c r="S6">
-        <v>0.0003810431216626959</v>
+        <v>0.00016706021922105</v>
       </c>
       <c r="T6">
-        <v>0.0004099291379304758</v>
+        <v>0.0001725120095166353</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>20.607907</v>
       </c>
       <c r="I7">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J7">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N7">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O7">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P7">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q7">
-        <v>323.4524919580361</v>
+        <v>204.6045879927547</v>
       </c>
       <c r="R7">
-        <v>2911.072427622325</v>
+        <v>1841.441291934792</v>
       </c>
       <c r="S7">
-        <v>0.6725933678127366</v>
+        <v>0.7213307607072325</v>
       </c>
       <c r="T7">
-        <v>0.7235811480919406</v>
+        <v>0.7448704403477062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>20.607907</v>
       </c>
       <c r="I8">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J8">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P8">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q8">
         <v>30.264751612293</v>
@@ -948,10 +948,10 @@
         <v>272.382764510637</v>
       </c>
       <c r="S8">
-        <v>0.0629331098663139</v>
+        <v>0.1066979803203817</v>
       </c>
       <c r="T8">
-        <v>0.06770392642756792</v>
+        <v>0.1101799284249722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>20.607907</v>
       </c>
       <c r="I9">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J9">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N9">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O9">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P9">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q9">
-        <v>4.498085571122555</v>
+        <v>9.359838877074111</v>
       </c>
       <c r="R9">
-        <v>40.482770140103</v>
+        <v>84.238549893667</v>
       </c>
       <c r="S9">
-        <v>0.009353406136019819</v>
+        <v>0.03299798779456539</v>
       </c>
       <c r="T9">
-        <v>0.01006246667653101</v>
+        <v>0.03407483367966634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>20.607907</v>
       </c>
       <c r="I10">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J10">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N10">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O10">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P10">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q10">
-        <v>15.67568610094567</v>
+        <v>2.3710736517455</v>
       </c>
       <c r="R10">
-        <v>94.05411660567401</v>
+        <v>14.226441910473</v>
       </c>
       <c r="S10">
-        <v>0.03259632486856284</v>
+        <v>0.008359188704835019</v>
       </c>
       <c r="T10">
-        <v>0.02337825229992396</v>
+        <v>0.005754653214765826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>20.607907</v>
       </c>
       <c r="I11">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J11">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N11">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O11">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P11">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q11">
-        <v>3.583914237067667</v>
+        <v>11.63469764568778</v>
       </c>
       <c r="R11">
-        <v>32.255228133609</v>
+        <v>104.71227881119</v>
       </c>
       <c r="S11">
-        <v>0.007452460582601079</v>
+        <v>0.04101797220529484</v>
       </c>
       <c r="T11">
-        <v>0.008017414744966367</v>
+        <v>0.0423565397221824</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H12">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I12">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J12">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N12">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O12">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P12">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q12">
-        <v>70.98236050763749</v>
+        <v>19.30254629036</v>
       </c>
       <c r="R12">
-        <v>425.894163045825</v>
+        <v>115.81527774216</v>
       </c>
       <c r="S12">
-        <v>0.1476020933402598</v>
+        <v>0.06805087088127756</v>
       </c>
       <c r="T12">
-        <v>0.1058609825500141</v>
+        <v>0.04684774763584994</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H13">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I13">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J13">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P13">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q13">
-        <v>6.641666281849499</v>
+        <v>2.855198774834999</v>
       </c>
       <c r="R13">
-        <v>39.84999769109699</v>
+        <v>17.13119264901</v>
       </c>
       <c r="S13">
-        <v>0.0138108093258314</v>
+        <v>0.01006596540393815</v>
       </c>
       <c r="T13">
-        <v>0.009905183672924435</v>
+        <v>0.006929636621074169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H14">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I14">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J14">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N14">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O14">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P14">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q14">
-        <v>0.9871147681404999</v>
+        <v>0.8830140368183332</v>
       </c>
       <c r="R14">
-        <v>5.922688608843</v>
+        <v>5.298084220909999</v>
       </c>
       <c r="S14">
-        <v>0.002052625541087016</v>
+        <v>0.003113054272839119</v>
       </c>
       <c r="T14">
-        <v>0.001472153623768811</v>
+        <v>0.002143096466834422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H15">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I15">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J15">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N15">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O15">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P15">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q15">
-        <v>3.4400637796485</v>
+        <v>0.2236888203225</v>
       </c>
       <c r="R15">
-        <v>13.760255118594</v>
+        <v>0.8947552812899999</v>
       </c>
       <c r="S15">
-        <v>0.007153335159169459</v>
+        <v>0.0007886119686164912</v>
       </c>
       <c r="T15">
-        <v>0.003420272577993721</v>
+        <v>0.0003619321252852186</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H16">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I16">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J16">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N16">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O16">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P16">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q16">
-        <v>0.7864978589714999</v>
+        <v>1.097625874783333</v>
       </c>
       <c r="R16">
-        <v>4.718987153829</v>
+        <v>6.5857552487</v>
       </c>
       <c r="S16">
-        <v>0.001635458859942183</v>
+        <v>0.003869665460568461</v>
       </c>
       <c r="T16">
-        <v>0.001172959528659898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J17">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>47.08665833333333</v>
-      </c>
-      <c r="N17">
-        <v>141.259975</v>
-      </c>
-      <c r="O17">
-        <v>0.8568847006715773</v>
-      </c>
-      <c r="P17">
-        <v>0.8689126983340025</v>
-      </c>
-      <c r="Q17">
-        <v>1.105908648722222</v>
-      </c>
-      <c r="R17">
-        <v>9.9531778385</v>
-      </c>
-      <c r="S17">
-        <v>0.002299647834012713</v>
-      </c>
-      <c r="T17">
-        <v>0.002473978929279821</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J18">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>4.405797</v>
-      </c>
-      <c r="N18">
-        <v>13.217391</v>
-      </c>
-      <c r="O18">
-        <v>0.0801768521528777</v>
-      </c>
-      <c r="P18">
-        <v>0.08130228593588212</v>
-      </c>
-      <c r="Q18">
-        <v>0.10347748554</v>
-      </c>
-      <c r="R18">
-        <v>0.9312973698600001</v>
-      </c>
-      <c r="S18">
-        <v>0.0002151730848348878</v>
-      </c>
-      <c r="T18">
-        <v>0.0002314848691857177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J19">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.6548096666666666</v>
-      </c>
-      <c r="N19">
-        <v>1.964429</v>
-      </c>
-      <c r="O19">
-        <v>0.01191624984823596</v>
-      </c>
-      <c r="P19">
-        <v>0.01208351695570926</v>
-      </c>
-      <c r="Q19">
-        <v>0.01537929637111111</v>
-      </c>
-      <c r="R19">
-        <v>0.13841366734</v>
-      </c>
-      <c r="S19">
-        <v>3.19800063317423E-05</v>
-      </c>
-      <c r="T19">
-        <v>3.440433820030218E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J20">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.281991</v>
-      </c>
-      <c r="N20">
-        <v>4.563982</v>
-      </c>
-      <c r="O20">
-        <v>0.04152775423406879</v>
-      </c>
-      <c r="P20">
-        <v>0.0280737832126037</v>
-      </c>
-      <c r="Q20">
-        <v>0.05359636195333334</v>
-      </c>
-      <c r="R20">
-        <v>0.32157817172</v>
-      </c>
-      <c r="S20">
-        <v>0.000111449311676287</v>
-      </c>
-      <c r="T20">
-        <v>7.993202109523508E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J21">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.521729</v>
-      </c>
-      <c r="N21">
-        <v>1.565187</v>
-      </c>
-      <c r="O21">
-        <v>0.009494443093240277</v>
-      </c>
-      <c r="P21">
-        <v>0.009627715561802291</v>
-      </c>
-      <c r="Q21">
-        <v>0.01225367511333333</v>
-      </c>
-      <c r="R21">
-        <v>0.11028307602</v>
-      </c>
-      <c r="S21">
-        <v>2.548052903432027E-05</v>
-      </c>
-      <c r="T21">
-        <v>2.741215024555042E-05</v>
+        <v>0.002663964598603721</v>
       </c>
     </row>
   </sheetData>
